--- a/execl_directory/output_part_4.xlsx
+++ b/execl_directory/output_part_4.xlsx
@@ -446,2156 +446,2116 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7402949313032211763</t>
+          <t>https://www.douyin.com/video/7317244755790843187</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/19786a2d78864c128ecbac064c056d4b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=PBkZHc%2Ffqv7oZ95UazdFX4C6AkY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oYeICQEAgANzAReD98bvBlnBRtjaCDAH2UHHCM~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=AENBXaFzjPqBAdS2ims3cazQA%2Fo%3D</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3855</t>
+          <t>2418</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>被骂多年再翻红，刘翔真的让人心疼 #刘翔 #奥运会 #运动精神 #人生感悟 #创业者</t>
+          <t>做这条视频几次哽咽泪眼朦胧，人生苦短，一个普通早餐奶奶苦的感人，苦的值得，苦的让人敬仰 #早餐奶奶#毛师花#萧大业#爱心#人生</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7402651039066819892</t>
+          <t>https://www.douyin.com/video/7316487585902152997</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o0yQgauIK1gfAMmWRF3wAkEs2D8wfTAB9EB71N~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=t0%2FoAVn28TJu7MDjN4AgW3fjnfE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/okNvR7zYEfAFIhBxTBhCWYAQAPLvNe9Jy5tSgU~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=be4n17E53%2BwMmrYTqZw4S51uOEI%3D</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>1624</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024实体经济将迎来新的财富机遇 #实体厂家 #实体经济 #机遇 #新媒体 #商业思维</t>
+          <t>人的一生就8个字“向光而行，向死而生” #江平#罗翔#死亡#法制#萧大业</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7402591650805042459</t>
+          <t>https://www.douyin.com/video/7316113001784855858</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o0uAndDuFUTRuS77H99GAB0AdneEINCfgm0Y4E~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=zmZbwaVoZLhETUp4%2Bhols6etDJI%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ooqDtDzhIqbACPiBuIunbAg93AAeCNAgesulQ5~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=hbqGyEHFzHvqGF73NP1zi6qSX0E%3D</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2406</t>
+          <t>6294</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>怎么看董宇辉与东方甄选和平分手？ #董宇辉 #董明珠 #东方甄选 #商业思维 #生意</t>
+          <t>有些人的恨是没有原因的，他们平庸、没有天分、碌碌无为，于是你的优秀、你的天赋、你的善良和幸福，都是原罪 #朱令#嫉妒#投毒#萧大业#人性</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7402466877756214528</t>
+          <t>https://www.douyin.com/video/7315364565263420699</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/99f82a84279b4854ae8d749151eb1241~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=hJvmU8i7MDJIKmBeXS1bGFA5keY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/okoF8WKh70eGBInErBfyAZGzgbCJZAPYNrwA1P~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=gLPtz9p1%2BN2jNFmNIie3iNRB9HE%3D</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>1176</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>超级个体崛起，赶快入局新媒体#新媒体 #超级个体 #趋势 #商业思维 #创业</t>
+          <t>简直是神预言。我的问题是为什么这么多人都看穿了这个局？ #董宇辉#东方甄选#俞敏洪#冯唐#萧大业</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7402241673683602740</t>
+          <t>https://www.douyin.com/video/7314996518468078875</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/addbbe9a165f48d58e08896dd4649c42~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=nmSDyrRWJTJd3qGVN195o8Kjnzo%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o86raUCgIDRa2dzABFlAEnrBhQ1mCcxbgAHee9~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=AgiRwg2RhvlI%2B9shtDwwdiX5FLw%3D</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2990</t>
+          <t>3630</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>看奥运精彩瞬间，品人生百态#奥运会精彩瞬间 #人生 #燃爆奥运 #巴黎奥运会 #中国队</t>
+          <t>董宇辉在整个事件的处理中都表现的非常出色，兵不血刃化解危机值得学习。#董宇辉#东方甄选#俞敏洪#东方小孙#萧大业</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7402212520376814900</t>
+          <t>https://www.douyin.com/video/7314623227085475098</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/af7a804f52ea40bead1adb909734fc28~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=FHu4oi1m52j3%2FqjsAnV5OOTwB0U%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ogWABwBmzfqIABC68yGXe7gcGhEqNA6zICwz9K~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=6%2BVd8Ewbogw4%2BiAsOp1K9ZMQ%2BhE%3D</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>1796</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>学会三点表达，让口才上一个台阶#表达 #口才 #逻辑 #会说话 #提升口才</t>
+          <t>俞敏洪终于“跪倒”在了董宇辉面前证明了这是一个崭新的时代@微信创作者  #董宇辉#俞敏洪#东方甄选#罗永浩#萧大业</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7401917686583758095</t>
+          <t>https://www.douyin.com/video/7313913822480321829</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o0E74NlBqCcNLA7f7hIA2LIBo5GL8cC0eeJZSE~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=ZH%2BSnR8yORzgPEONr%2F%2BaCFGIEVc%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oIgeEIe77ACd1SpAABnAIzgF91lgPB2AbDDVbh~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=v9akcMPMGO1YX%2FRVNZQm8u5mKZg%3D</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3948</t>
+          <t>2651</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>向国乒学管理能力，提升只需每天1小时 #管理思维 #团队管理 #提升自己 #领导力 #领导者</t>
+          <t>今天的故事讲的是董宇辉人生中的几个重大转折点…… #董宇辉#俞敏洪#东方甄选#东方小孙#萧大业</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7401844120949476635</t>
+          <t>https://www.douyin.com/video/7313504723569626394</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oEATeIQn1EmfRAfUAGIINQTxLDeIYQesCH2gxo~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=m93xJ1BzQczCA%2FexoaEoLchFbE8%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oIAC98qPnfofnkIw7bfCsUB4AEDkBTFQwKWdIS~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=C6VPS6zkAye53sQE6oVWroOha7M%3D</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2090</t>
+          <t>1506</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>祝董姐和自己生日快乐天天开心 #董明珠 #生日快乐 #企业家 #创业 #商业</t>
+          <t>二选一的结果是董宇辉留下，东方小孙出局 #董宇辉#东方甄选#东方小孙#俞敏洪#萧大业</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7401550647503424778</t>
+          <t>https://www.douyin.com/video/7313019913260633371</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ocWAWiBhiQCDWl3r1evnABkAz65EIDCvgzeLsi~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=lzpq30c97%2BzzaYJFJMlfVqIllpo%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oAeCNHVvFI2iHIZD4iAbfQgP6AFIe0SEsx2Agf~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Hkvwj%2F2n1wcmPcJWVnVot1E5Iww%3D</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1451</t>
+          <t>3750</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>走向管理岗你要知道的5件事 #管理 #领导力 #职场 #管理思维 #带团队</t>
+          <t>董宇辉和东方小孙二选一的死局怎么解？我来出个主意 #董宇辉#东方甄选#俞敏洪#东方小孙#萧大业</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7401521387967384842</t>
+          <t>https://www.douyin.com/video/7312788203918855451</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/f8d6c89dbf4a44a4b33691f5407aee36~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=yElB6p7TW1%2FvOLPGSMxWd%2FRlwc0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o0dNhf88AkmeMzHYI0PAFzaxNWhAvysCgBB8Eu~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=47dslYFnUepdvBqLBWHJJvO1YQA%3D</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>1.3万</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>新媒体时代，创始人抓紧大胆做个人IP#创始人 #新媒体 #个人ip #生意 #商业</t>
+          <t>过去有句话叫这个世界离了谁都照转，但我想说：东方甄选离了董宇辉真的很难转。 #董宇辉#东方甄选#俞敏洪#东方小孙#萧大业</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7401504176871640335</t>
+          <t>https://www.douyin.com/video/7312412334092307738</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/930eda1bfd0c4e5f91d9e6659aba18d9~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=wbzaO4%2FNu%2FAWM7EVtuIfRMGQO2c%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oMKTD6QhXEECvXGyA3BIe6Sf5NN1bIACAzsBgx~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=44yCD9vf57KdK%2F9j5fyeHCylAlk%3D</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5.9万</t>
+          <t>21.3万</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>全红婵潘展乐闪耀巴黎，中国00后新星登场#全红婵 #潘展乐 #巴黎奥运会 #00后 #新星</t>
+          <t>我们这些人看似是在支持董宇辉，其实是在保护我们自己内心的善良和正直。 #董宇辉#东方甄选#俞敏洪#东方小孙#萧大业</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7401124237420924210</t>
+          <t>https://www.douyin.com/video/7312050505507818802</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/eba4ae9cf4084273922a82f814ac3d00~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=2yRCZPKhHYpH7PuI4WXEhAUPJQk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/og1BBehELIAZ9LOXyRne5tBDXAhEpCzlKEW7Yf~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=TiPq66dzfEhdXXeLnRnqFJmYdwA%3D</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.6万</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>为郑钦文点一万个赞，中国青年应该有的样子#郑钦文 #奥运会 #网球 #中国 #青年</t>
+          <t>这是一直好好搞研究的院士 #开讲啦#撒贝宁#王志珍#院士#萧大业</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7400989268706872602</t>
+          <t>https://www.douyin.com/video/7311660474729368859</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/37e76c10ce024654b3813efbb7a70813~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=K1yzO43h6qqRzpSouJ80DRHD%2F6Q%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oAKGEfgfGCOQHA47CBMgdTOFK8BZAA2HsjePHg~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=PW3SZ1WjkOacVEKNmZBt2UDl7pg%3D</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4206</t>
+          <t>2988</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>七夕舔狗经济崩塌，商家如何抓住新商机？#舔狗经济 #七夕 #商机 #商业思维 #创业</t>
+          <t>匪夷所思的家长会，不吐不快。 #家长会#家长#孩子#教育#萧大业</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7400726943764729126</t>
+          <t>https://www.douyin.com/video/7311307628552998182</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/e9417955617a43fcaa984a9b217627ee~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=N0ELJlnzj6DWgPji333WSMUrLM4%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ocInGi8zDbgCQ58AVrWAJefb2al2EeD2tIC4ej~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=MzLhYRz96mBiuyEPjEDqJtMIqUA%3D</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>1767</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>80/90/00后的恋爱，到底有什么不同#情感共鸣 #爱情 #80后 #00后 #认知</t>
+          <t>泰勒斯威夫特不仅仅是个歌手，她有太多前无古人的创新，值得学习#泰勒斯威夫特#霉霉#时代周刊#流行音乐#萧大业</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7400672856427777295</t>
+          <t>https://www.douyin.com/video/7310567491665693990</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/a32d652842694ad0affd82187312fbf5~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=j%2Bo%2F%2Bw4ExtFmdf0xFYDSAcGswoc%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oMbAFZfuoEzsdIBA0UygtZhHy0I1ejuACWmiWB~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=k7%2FxmAWt9QQNeJT5bDeo21SQPfU%3D</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>880</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>就业难度增加，第一份工作如何选择？#就业 #第一份工作 #萝卜快跑 #董明珠 #格力</t>
+          <t>23年普遍都喊生意难做，但中国企业西音却在欧美翻云覆雨，打的ZARA和H&amp;M满地找牙 #Shein#西音#服装#商业#萧大业</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7400358868900908314</t>
+          <t>https://www.douyin.com/video/7309818924433018162</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/550f14561087459daabd7911d841bb68~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=7itOTfTSRlMZ11mevJJu7n1ybc8%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/owDgSZstAkiANCCyeAPBAQYsahI4EBfxVZXutz~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=MyivgKKnS%2Ffv3LSGHFDAbMu%2BzMg%3D</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2689</t>
+          <t>1284</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>全红婵的责任感，值得年轻人学习#00后 #全红婵 #认知 #责任感 #个人成长</t>
+          <t>向月亮进发吧，即便没有到达，你亦将置于群星之中 #马斯克#特斯拉#雷军#创新#萧大业</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7400331282057628928</t>
+          <t>https://www.douyin.com/video/7309436679541017893</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/eba35b891eba40cfb6f8a2a31a77bb5c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=iUqkqOtRBOOcCMXesPQs654Ajok%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oYAPAAflCDWCb9sQXWgbB8qcjnSbdFIRnVf5og~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=UHFTBdG1NTrvrCpGAeAowsCemk4%3D</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>8492</t>
+          <t>2222</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>提升管理能力，只需每天一小时#管理 #领导 #团队 #老板 #高管</t>
+          <t>不要想改变任何一个人，多说无益。 #教父#人生 #成长 #萧大业</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7400237816589929743</t>
+          <t>https://www.douyin.com/video/7309071036253818121</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/67e5137be16e47049e65411668e06f6e~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=ocl8vSsRgvTYq73G8aZLqWVm6EY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o0elQCs1inAtEHR32w8HA9lF2AGgTBMbgkbgeD~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=8UYqJlmY13Y%2BSmY0b%2FGEsG2XlYA%3D</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>690</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>有野心的女生，大胆做自媒体副业#副业 #自媒体 #ip #支付宝剧本攒 #商业</t>
+          <t>我，如果对自己妥协，如果对自己说谎，即便别人原谅，我也不能原谅…… #五月天#假唱#音乐#演唱会#萧大业</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7400052949650558223</t>
+          <t>https://www.douyin.com/video/7308695883917397285</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/a4acfba001ff4caeb5dad5fab84689c1~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=fWSRRbMhkq5nZGV8RdkfblrVOtU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ocQnlbCK2MqbABMtZmQAeHuADDCGbb5I9gbe9a~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=n5vEeCLkJdDEc1FhzZgYw%2B0J95A%3D</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>2312</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>访学格力见证传奇，一起进步奔向美好#格力 #董明珠 #商业思维 #访学 #企业家</t>
+          <t>钱不是克扣出来的，只要真心关心员工，赚钱一定有道 #胖东来#管理#薪水#人性化#萧大业</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7400024345503878410</t>
+          <t>https://www.douyin.com/video/7308348238615088394</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/6f3cbaed1f934b2bb3224bc5618807ac~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=V02E8WfMRo27VO80GF3Oa3Yjywk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o0zDc8QAIYVBEw2CbYenbBo7erAeCIOAnxaKQk~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=YynCKKIXnYphNxqXGWWtREjDB%2BI%3D</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>969</t>
+          <t>665</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>00后拒绝恋爱脑，分手体面做朋友#恋爱脑 #七夕 #体面 #大女主 #人生观</t>
+          <t>不管未来能否做到，我们都不该妄自菲薄，不亢不卑客观清醒才是我们应有的态度 #马斯克#特斯拉#任正非#华为#萧大业</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7399647758556171571</t>
+          <t>https://www.douyin.com/video/7307943291847265587</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/349ac64819ee46539939511d0997569a~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=hKXglwJqu9d94WOLTDuWISvNF1s%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/owBBiDDnAhAEM9FebAK7BAATEZrf71IBge6BYE~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=gSGArDDxieX7eTyjBNvaI08zaW8%3D</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>2102</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>被吹爆的松弛感，真的有那么好吗#松弛感 #认知 #思考</t>
+          <t>马斯克牛叉皮卡不为人知的故事#马斯克#皮卡#cybertruck #特斯拉 #萧大业</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7399587809285164326</t>
+          <t>https://www.douyin.com/video/7307866038576680218</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/2c316e2be7f44c9d82504dea398c3961~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=P%2BF7b0naMZ3fpgFcSuyqtLE9epY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ocXzI8e4fdEi0HaqBBnAQe1G7nKAwCxBmXDLbY~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=ijAsovA0vjKc8w0EKeYfZj%2F3sDU%3D</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>920</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>北京奥运背包又火了，新媒体时代泼天富贵你能接住吗？#北京奥运背包 #商业思维 #新媒体时代 #创业</t>
+          <t>纯钢铁硬汉马斯克，来看看他在DealBook峰会上的采访#马斯克#推特#苹果#迪士尼#萧大业</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7399503032259448098</t>
+          <t>https://www.douyin.com/video/7307217660008303898</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/c34dcce863504ef79f4d0c0c57bbd78f~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=SMpRgg9W%2FoeN9bqmX8NyGNMIoO0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oI5AV8yADQ7Ig2adHQbHMO7A9iNflnCfADD4BY~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=kyvGCeXR5raOEYw3oTmtbuU5ceA%3D</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2852</t>
+          <t>305</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>巴黎奥运会开幕式争议，背后的思考与启示#巴黎奥运会 #开幕式 #思考 #文化自信 #认知</t>
+          <t>又一位百岁老人离世 #基辛格#100岁#长寿#萧大业</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7399341214249667875</t>
+          <t>https://www.douyin.com/video/7306836300525538569</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/20466b494f5e49ffae598a0aaf9d91dc~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=u35jkdVV2SDMTEXbHT3YWWCWWrE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o8YAwD4ngH4BDh18bYl9AEAFQUcceZg4xwXmfC~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=wjTbdhU8XbarauajzqUJRplKSis%3D</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1396</t>
+          <t>1118</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>网红带货的风口结束，下一个创富赛道开启#创始人 #商业思维 #赛道 #创业 #创始人IP</t>
+          <t>一代宗师，一路走好…#查理芒格#巴菲特#投资#伯克希尔哈撒韦 #萧大业</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7399291776508513576</t>
+          <t>https://www.douyin.com/video/7306469405456682278</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/ee49fdd280384a83bd191e891c1f96de~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=RgPdTNe8rFJsoQua94FYMdDsxXI%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oosetAbKCZQECl9DAGgpIH8DfuF0ulLnnzAcBa~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=hRgfSY2o504guC4sdOu48V%2F%2FV6I%3D</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3929</t>
+          <t>1186</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>61岁倪夏莲再战奥运，真正的奥林匹克精神!#倪夏莲 #巴黎奥运会 #奥林匹克精神 #乒乓球 #运动</t>
+          <t>一个在和穷人抢生意，一个花了30亿美金让人类的太空梦又前进了一步 #马云#马斯克#星舰#特斯拉#萧大业</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7399034941234842895</t>
+          <t>https://www.douyin.com/video/7306092758085815561</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/4277c8fac5f5482dabed753a5a048d8e~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=cSCqxpP1e9oy2nmThV3pU9VWONo%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oERAoLzOfOdDsdkBpeZpABqAwFaEICCtgyjx0h~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=7lVGOvIPpbzGe8sG4RIXN3%2FMe78%3D</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>908</t>
+          <t>387</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>掌握发言逻辑，成为超级表达者#发言 #表达 #口才 #演讲 #上台</t>
+          <t>如果你已经想不起上次回家的日子，记不得有多久没好好陪过父母，那这份以爱为名的礼物就是翻山越海 为你而来。 #十点读书#日历#萧大业#时光#礼物</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7398944571549404426</t>
+          <t>https://www.douyin.com/video/7305578724643179803</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/24167ac5837249728e191a2b968efef7~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=f7Rv4mHXedXUoaZJIH6hkENKY38%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/oEK9aYDL7dL8iFCmA5CRQegInbA1eACXpBzlqQ~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=cSw7IxMaOKmncYe1ne1Qr6vAbdg%3D</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2722</t>
+          <t>520</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>黄雅琼戴着金牌被求婚，真是一个圆满的时刻#黄雅琼 #婚姻 #爱情 #巴黎奥运会 #人生</t>
+          <t>买包子的卖了豆腐脑，重罚；上市公司虚增28亿利润，轻判 ，是时候复盘一下了#包子铺 #法制#执法#处罚#萧大业</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7398881163290381602</t>
+          <t>https://www.douyin.com/video/7304974971015613747</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/990eb500389a40709b022a82a68635a3~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=zqmV9VNQd7c%2Bfyx6o7QuzuqW4Uw%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/oElDIAcAAnDxCgDJwfhBbeAPuACH0QQ49HYDhD~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=RK%2FaMKdDbBpeia05mGMnS0Bhuzk%3D</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4.4万</t>
+          <t>6544</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>中朝韩运动员自拍，这就是奥林匹克#这就是奥林匹克 #孙颖莎 #中朝韩 #巴黎奥运会 #体育精神</t>
+          <t>马斯克说：专利是为弱者准备的。于是他又开放了跑车专利，随便抄… #马斯克#特斯拉#电动汽车#专利#萧大业</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7398537212301806858</t>
+          <t>https://www.douyin.com/video/7304606429221031177</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/72e9683becda4f46be175415ebd894ef~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=dHT7cCV81F%2FUtRwu8U47qby5uzE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQyPoYW5bAjZfeTAJkkcALQgZIexhffMVfZViL~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=8oQoXBH5g%2FIK%2B%2BydmoUMptreDAQ%3D</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>1900</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>聪明的老板，语言就是生产力#表达 #语言 #生产力 #老板 #提升口才</t>
+          <t>自我觉醒之路，就是人生进阶之路，从看了这个视频开始打开觉醒之门… #成长 #觉醒#认知#萧大业 #人生</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7398496413098741019</t>
+          <t>https://www.douyin.com/video/7304243330920025381</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/28f631f3ed2445059c59b10e31d0a136~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=XKxJn9ySJV7vR5puKuZq9FrpNyA%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQKunbFHBDAEQUxs5BKAeC57IV7eAaxE6BZuBe~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Vro%2B8CArOyTXYbIbCGDvh0XEvbA%3D</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>8971</t>
+          <t>1342</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>李小双太敢说，再次火出圈#李小双 #体操 #巴黎奥运会</t>
+          <t>伊利亚在如此巨大的利益面前依然保持初心不为所动，在他身上看到并不是只有永恒的利益#Oprn AI#奥特曼#伊利亚#微软#萧大业</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7398479214812368180</t>
+          <t>https://www.douyin.com/video/7303769182573759754</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/92fb5d1cf39442bbb6b8d18526490850~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=AL%2BT9m5XDeYGtJji3th%2B1c99HO0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ogAsecYeqEmvzOTCAfIe1ed4yDPQQgYsaHAEwM~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=3A5wwnNR5%2FLIN9%2BbejemBZc7JLE%3D</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4842</t>
+          <t>754</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>00后闪耀奥运，大家为何爱看？#巴黎奥运会 #孙颖莎 #王楚钦 #国乒 #00后</t>
+          <t>仪式感，就是使某一天与其他日子不同，使某一时刻与其他时刻不同。#日历#时光#仪式感#萧大业</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7398391278465010954</t>
+          <t>https://www.douyin.com/video/7303104195471707419</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/947cbdcfb5b64e4aa2e3401f4a47825c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=lYc6LkXo9p1DnthMyoYrF%2BJNWbI%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oM2eZEBqEhHJp7SAd1lAZzpBWIk3CmvNgA0fV9~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=PagKVnTy0w630%2Btz644sSC2BZYc%3D</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>3857</t>
+          <t>3695</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>硬广时代结束，内容营销怎么做？#女装 #内容营销 #商业思维 #实体 #行业</t>
+          <t>你的孩子，其实真的不是你的孩子。 #生日#纪伯伦#孩子#教育#萧大业</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7398176763462847770</t>
+          <t>https://www.douyin.com/video/7302776448069225755</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/14aa3a1a9a7444cb8af38937bffbb7b1~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=G3d6Dbttk4uvBbHTu1ZVvty50m4%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/oc6AtNfr3Ez3SGBAYRXgtBhLyYIYeMVACQIFrB~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=a8ho0fJ26MaIKRXjTQVHCBJTrsY%3D</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.6万</t>
+          <t>559</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>潘展乐夺冠创记录，诠释更高更快更强#潘展乐 #夺冠 #巴黎奥运会 #更高更快更强 #世界纪录</t>
+          <t>其实很多人都不喜欢PPT。 #马斯克#特斯拉#PPT#电动汽车#萧大业</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7398054520762289442</t>
+          <t>https://www.douyin.com/video/7302378804549373234</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/8c0cd0dea704462abbec25353292d1df~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=VCQ7lqBP4%2F%2FjJQvlflw4jwu1S9c%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/owA6AAuyCh0BNezIEIXNBfQqBz7A06EONBQJDg~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=0zEHZP2MiOhzdzQ2DaBCV3A4Z40%3D</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>6.8万</t>
+          <t>1119</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>草根逆袭，全红婵是我们的榜样#全红婵 #逆袭 #巴黎奥运会 #夺冠 #冠军</t>
+          <t>哈哈哈哈，周末愉快 #周末#婚姻#爱情#人生 #萧大业</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7397818098578885903</t>
+          <t>https://www.douyin.com/video/7302010438324194598</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/e7f893a4b076454db812be59d53c55c8~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=v38niSTpdsG0VN5eMNfCJDEZR4w%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oo8N7ieKqAaOBiJHDN1fy75CEZrbgWVeB94AQn~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=o2bTqDE8mzgYPH7eWBNXtjhZI4Q%3D</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>4797</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>高情商嘴甜的人，真的太厉害了#高情商 #嘴甜 #提升口才 #表达 #会说话</t>
+          <t>有空还是多读点书吧，愚昧真的太可怕啦 #格力#董大姐#王自如#萧大业</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7397737183236427008</t>
+          <t>https://www.douyin.com/video/7301641458354883849</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/bed82c00f64042e29747b3095128731f~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=KTlEvH7Q%2B99NTwWhzBn9vF9l1x8%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/osltCfzAeAAaSI7HgUhE8IBApBWgEOJ8qyN6Wl~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=X1DEgEigC1TMT9YKWwwqOWg3zPs%3D</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>1.2万</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>高情商回话技巧，轻松掌控全场#高情商 #回话 #提升口才 #口才 #高情商说话技巧</t>
+          <t>跪舔和拍马屁是有区别的，你如果一定要说是一样的，那真是玷污了拍马屁…#王自如#董明珠#格力#罗永浩#萧大业</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7397734743476899106</t>
+          <t>https://www.douyin.com/video/7300888064207916314</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/0926c51c9ceb4aad9b6f19476ae3420b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=j3Pt%2BCIfQTXNrrBtsXBxdii1EEU%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/oo3e2nbElpefBq9bBAKRkEKx9N75oAUVDINCBH~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=0mjrbYT14AUeypFlplxiF%2FXVdQs%3D</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2.8万</t>
+          <t>7168</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>人工智能时代，该如何培养孩子#人工智能 #教育 #能力 #家庭教育 #育儿</t>
+          <t>看看美的，战略清晰，何享健每一步都踏实有力；看看格力，完全不知道董大姐在想什么。#董明珠#格力#王自如#萧大业#管理。</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7397445829084089650</t>
+          <t>https://www.douyin.com/video/7300525984439127346</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/a5b4bcc09bd04b90a370c4a6536b67e7~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Db6feBAVoJmQNh9%2Bx%2Fd2G5gcJRk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oArAgfFAhIBEgvqkFQNYrtwAeHQmyzClABcbB2~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=y%2BePFu%2FFfNgF4qFPKxQhzU9XqDU%3D</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5196</t>
+          <t>1.6万</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>网红带货时代结束，新创业风口你抓住了吗？#创业 #商业 #商业思维 #老板 #趋势</t>
+          <t>维护正义需要靠大多数人及时出头#精致利己主义者#正义#良知#萧大业#成长</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7397361396293340451</t>
+          <t>https://www.douyin.com/video/7300175845287562506</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/9a5b6ce9f5df413f8dd72b2ed40783a4~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=uKaa7C6gdVXRgT1hxg91KExIUVc%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o4DMgEebtoXQzcB7f3nKtE84sAWnWkABAEN1eC~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=dDx7Emy79w5OYv6F9SoFMF9xVO4%3D</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1585</t>
+          <t>663</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>自媒体创业者，如何成为表达高手#自媒体 #创业者 #表达 #提升口才 #会说话</t>
+          <t>时间沉淀，匠心传承，品牌建设非一日功＃贵州珍酒 #茅台 #微信创作者</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7397281749027343616</t>
+          <t>https://www.douyin.com/video/7299795417934368010</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/cfe3ee9f238543e99f3c1f70206c5506~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=m2ImaXAceRLzzqOj0yea6PPecfE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o4AhAAUlCD1Ce9pQUQObBeFT5nHbRhICw1YkGg~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=ROHvtCK%2BvLBp4TINbTS%2FBNoED%2FE%3D</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1.6万</t>
+          <t>6536</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>人口出生率下降，背后的机遇与挑战#商机 #人口 #商业思维 #创业 #机遇</t>
+          <t>人不可无傲骨，但不可有傲气，为什么他一身傲骨变成了一身傲气？#王自如#格力#董明珠#罗永浩#萧大业</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7397052597816839450</t>
+          <t>https://www.douyin.com/video/7299025777926982939</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/565ccbeb2a9d4267935adb5dd45bc26a~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=ufIZMPxALP4MynIlRlS8BMSKhjk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQyrPAt5CpIB8WetAKgHEGfho3ymVyLUztAaBj~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=pZXit4O2ClNXny4Xje5IOzQxiEM%3D</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4621</t>
+          <t>1.1万</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>一个人变富应该做的5件事#演讲 #变富 #表达 #提升口才 #高情商</t>
+          <t>真诚战胜了套路，让虚伪和假大空屁滚尿流 #何赛飞#金鸡奖#获奖感言#真诚#萧大业</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7397001599870143779</t>
+          <t>https://www.douyin.com/video/7298692337000140070</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/ae3d1a4d531f4456a7fb65466e6775c0~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=avzyfu3ZEPwolh53VfSeHyXsPio%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQgAApnCsIARZX7Cz1KSKtBntghNjBz5yEie5f~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=jGijOuGZdmOAYqvMjQ37GOQkyzM%3D</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>5.0万</t>
+          <t>1684</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>延迟退休，享百岁人生#延迟退休 #人生 #退休 #认知 #人口</t>
+          <t>不亢不卑才是做人的真谛#马斯克#特斯拉#电动汽车#人生 #萧大业</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7396977776009547023</t>
+          <t>https://www.douyin.com/video/7298312900664413491</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/da3d49ce6a5b4f2caec88e612c7de24d~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=f%2F%2FCX0X2z%2FtFM%2BzGV3CDsRyAy%2FU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oYblqE9iA8nSRRDDeo8BmIQdAICNQgB5NZDCeA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=FreNe30ZzMVYBKpUOpHTetx6ybA%3D</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3.8万</t>
+          <t>1179</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>为什么会成就如日中天的抖音？#商业思维 #大数据 #算力算法 #生意 #认知</t>
+          <t>马斯克看似做了九间完全不同的公司，其实只是用了同一种思维方式。《埃隆马斯克传》值得带回家一看#马斯克#特斯拉#电动汽车#星链#萧大业</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7396731271721798949</t>
+          <t>https://www.douyin.com/video/7297942867228642597</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/5e506ef496144011828d9e150bcebb0c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=8vgIkhjefCpzRz%2FU8Iyjm6sSsK0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oMHEgRnDNIlZel9ACCbB99nQGMGQg4AeADAzNE~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=LLnuJZA4YC4FZ1xBdqQGEn9cb1o%3D</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2643</t>
+          <t>821</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>提升表达能力，请疯狂做这件事#提升口才 #表达 #说话公式 #嘴笨 #演讲</t>
+          <t>你相信吗？大部分企业的管理人员和老板不懂管理，但他们都爱听故事，不听这样实战的内容#老板#管理#管理人员#经营#萧大业</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7396692199490080050</t>
+          <t>https://www.douyin.com/video/7297548380018920741</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/c093095fc920430bb54b1423c01b7005~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=iOLNghq5oanUrB8mZDogS1O0%2BRA%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oUlgChMESB7IhAe9cAYQI0QCxRAGgLbCfmMnDw~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Ey2F1HIawjld3d5Rtt9TImqQoLo%3D</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>8388</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>做好这3件事，超越90%的人#做事 #人生 #成长 #认知 #思维</t>
+          <t>无论你遇见谁，他都是你生命该出现的人，绝非偶然，他一定会教会你一些什么 #禅语#人生 #萧大业 #成长</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7396353583567867170</t>
+          <t>https://www.douyin.com/video/7296813005096897819</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/90979ad15d5f4e158727ac52f922e851~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=avo6gclYsZIWmAXZ5I0TwVUL%2BC8%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oANFfWeB7gNAZEy2k0QENuPKSiY5HB0vCApleh~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=3QbyNL8Nb4e5VpFlmIP75eCTdRc%3D</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>9.0万</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>抓娃娃电影看完真的后劲很大#抓娃娃 #教育 #强者思维 #精英教育 #人工智能</t>
+          <t>每一句话都包含着人生智慧。 #智慧#萧伯纳#金句#萧大业#戏剧</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7396331763078827274</t>
+          <t>https://www.douyin.com/video/7296450152892583178</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/a172100bc96c47d188e256e8f85989ef~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=LYmceo1rNbqrw%2FCUe0xZM1oNsgI%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/owMKJCCnlBZL7hqeDwkjKAIMAAZEbQfgM9QYSj~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=nfpiwpRsB7UcOJ3vhvqMU01UVB4%3D</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1585</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>企业创始人，为什么要做个人IP#创始人 #商业 #创业 #个人ip #企业</t>
+          <t>父亲给儿子颁奖，十分感人… #大马丁#梅西#金球奖#阿根廷#萧大业</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7396316973543558409</t>
+          <t>https://www.douyin.com/video/7296103321360665907</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/98f591c7cfc94948b209b74296497a65~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=dqkXbrBQVcO0PAQd9TUa3eT5PsU%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/oIZAt1zSfChgo9AFWeahABGARAjEICBtgyHLbh~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=X6dbrrQFjvIBwW6YMEC6DzilGAY%3D</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>3.4万</t>
+          <t>6761</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>董宇辉彻底单飞，给我们3点启发#董宇辉 #俞敏洪 #商业思维 #创业 #思考</t>
+          <t>第八个金球奖，这篇对梅西做了一个非常全面的总结。#梅西#足球#金球奖#阿根廷#萧大业</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7395915364976053541</t>
+          <t>https://www.douyin.com/video/7295381892768075059</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/0e720b1ab38e41b88bcb470d756a0b50~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=%2BYg4%2F2P%2FguZg%2Bmcw4iF6vzvCIVo%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oAmlBeJADpzebBZAHgnIPI3u9bBLnADAAbSQpC~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=pCFT3xoBvvN1HvrE3U%2FVgnzsgwo%3D</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>5536</t>
+          <t>2810</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>学习力比学历重要一万倍#学历 #学习力 #能力 #认知 #思维</t>
+          <t>这个研究说的很准，为避免成为废材，本视频一定要看 #哈佛大学#废材#人生 #管理#萧大业</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7395903856384691465</t>
+          <t>https://www.douyin.com/video/7294569427184405769</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/5ac913f5dbe54fe8a616ab44a11873b5~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=scOgQA%2FE5klvIueohlcPOT4mW%2Bw%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ogeQEc5lOA6qALdBDcO4E9hBCa7bIE0wAyfgEn~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=b51t5RAjjOk95UybJL4mMMqXSpA%3D</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1447</t>
+          <t>1223</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>情商不够，你注定怀才不遇#高情商说话技巧 #贵人相助 #会说话 #高情商 #为人处世</t>
+          <t>郭台铭说是他赏我们饭吃。该不该查富士康？#富士康#郭台铭#台资企业#台独#萧大业</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7395859203815984436</t>
+          <t>https://www.douyin.com/video/7294047481002790182</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/2fb5ec605b454f458af0a0ef0d3e827e~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Gjgh9TmpZjwy9AMyjbb8Z3bnG8w%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ooHwszSEbMfNAo8NAgK50CyZqYeznAQ6hILBBj~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=XLhBsEX6T1Ko7WLjlm6fCpjTCmg%3D</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1631</t>
+          <t>1926</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>品牌不是你谁，而是你让用户成为谁#品牌 #商业思维 #创业 #营销思维 #生意</t>
+          <t>希望能够堵上许家印以身试法暴露出来的漏洞 #许家印#恒大#房地产#萧大业</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7395547880121060608</t>
+          <t>https://www.douyin.com/video/7293851462482791718</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/4a6f35530ffa4fbf930bc20388662a14~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=uTRU5brTYGTeIpGSzln2hW4DY%2Bg%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/owQjgECs23H4AcPUJ5De20fe81kDSHrAIGeSEO~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=EZd9PqSZtFzvlif8yMrpBqljCQo%3D</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3032</t>
+          <t>986</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>三个看着不起眼，但利润很大的生意#创业 #商业 #生意 #短视频 #直播</t>
+          <t>她只用短暂的一生，教给我一件简单的事：人生苦短，能在一起就好好珍惜。爱你的原因，就是爱你。在一起的动机，只是想跟你在一起#狗#爱#和你在一起#人生 #萧大业</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7395546426941459722</t>
+          <t>https://www.douyin.com/video/7293512430460620069</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/13741c5801fe4f2bb1d901e820a65e5b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=6IJu%2FThybPHWMe4xZxs3E0u%2B%2Bso%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/okQ9zhg7ETlB59AuIB39gCfYSNmjwAt8IGA0Ff~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=IE1xay4oEcvIPgjT4Xq53z4%2FTxc%3D</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>7533</t>
+          <t>5260</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>35岁中年危机继续打工还是创业？#中年危机 #35岁 #创业 #打工 #思维</t>
+          <t>皮裤的四段婚姻，其实一直在重复#汪峰#章子怡#婚姻#亲密关系#萧大业</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7395409498258672896</t>
+          <t>https://www.douyin.com/video/7292735259303628042</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/c584532212354aa8b362cd72b77ae99e~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=elFO63Hp5xVbfDar1AoisHUjQOM%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oMHhVzfEnFfPAp4tAgP1BClBAw98NAihhIjBBw~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=akyKWcKifRm2PbW2XTFJLoW5zsg%3D</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>900</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>会表达的女生真是太厉害了#表达 #提升口才 #高情商说话技巧 #张琦</t>
+          <t>这个世界最大的危险莫过于真诚的无知和认真的愚蠢。#巴以冲突#以色列#巴勒斯坦#加沙#萧大业</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7395125120508988672</t>
+          <t>https://www.douyin.com/video/7292368899234958619</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/c899d9c8103d46ecbb813bcffa1bbb54~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=%2B61fJDTnbMPmbHl8%2BDCmaOhbd4w%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ocKMnbYQADfNgcZA8Flg8BRnQd97Af0s5A3VTo~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=vPWOwKsnrMHAIw8Rg7Md2qx40u4%3D</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>1608</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024普通人做自媒体，现在还有机会吗？#自媒体 #ip #教育 #新媒体 #商业</t>
+          <t>爱自己是终身浪漫的开始 #爱自己#卓别林#王尔德#成长#萧大业</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7395056258077740326</t>
+          <t>https://www.douyin.com/video/7291986083536063795</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/8ac3964427c740d4b58c490766d0bca9~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=gEIwrhLnwaAypTvxw6U18S5%2BvZE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oUhSINaNSsMEz9AePVmyvBftc6RzaogAAEPEyB~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=ZvnuQinsN2LAlsl0G%2BVMys%2FK7bg%3D</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>6926</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>抓娃娃的苦难教育，背后几点值得深思#教育 #认知 #抓娃娃 #精英教育 #苦难教育</t>
-        </is>
-      </c>
+          <t>1708</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7394814185311456562</t>
+          <t>https://www.douyin.com/video/7291606739277909285</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/b5e8757f72d7445da9abda859c5ce10b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=JkdrNpqtXibqa7iLdCc6uakRhV8%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQoeAABWIx9Nhyuy7bUqhQPalbxfjnZZMCDgAA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=tPIlfnrldEyn2lgyiK2E%2BoUDJXI%3D</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>4753</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>为什么年轻人反感饭局文化#饭局 #年轻人 #认知 #张琦 #人际交往</t>
-        </is>
-      </c>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7394784711857524019</t>
+          <t>https://www.douyin.com/video/7291247729114647865</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/615c86f2467f4edd84a0c731d4eef9e4~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=1GOdjFfZVVz5IFv0eD3vHB1WHM0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o8D9TFIvO8qJcjneBgbqeEANBcE5zJPSA7LltA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=5UtEmuambcQP%2FpqflYYB8KCc3Ss%3D</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1532</t>
+          <t>3275</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024实体门店一定要抓住的机会#实体门店 #私域 #商业思维 #创业 #渠道</t>
+          <t>吹梅西多余，不吹又难过，我好难啊😊#梅西#阿根廷#足球#世界杯#萧大业</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7394734803762908431</t>
+          <t>https://www.douyin.com/video/7290869788660829499</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/379d0d37ae9b47c388822f5907c9fdb9~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=JxPKJFM8zab8Ka3VSJ9c%2BLLYMFA%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oMx4EkBlAg4IaE96dhm3tB7AudTzLfPelNcXVA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=H%2B2llZ6SMgm7a6krsOl%2FWm4rHrs%3D</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1392</t>
+          <t>2.8万</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>可以功成名就的雷军，为何偏要折腾？#雷军 #雷军年度演讲 #创业者 #商业思维 #小米</t>
+          <t>也许相信六道轮回，相信作恶下辈子会为畜就不会这么干了。 #浙江国祥#IPO#资本#大A#萧大业</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7394482542994279690</t>
+          <t>https://www.douyin.com/video/7290526900777241893</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/0b8e8567aa164d45bfa69a073ae44b23~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=n5b%2FX9S3fv%2FSKWR46Z5dPzTWTZo%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ok5BMbktGAu7nLPIBgIDAeCaJBWeEWPfKA5Gyk~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=a2i2yZ0qmxLZKQCApgwTZLZhul0%3D</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1328</t>
+          <t>1437</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>录了一下午的数字人，正好赶上日落，晚霞很美。新的数字人形象希望你们喜欢哦！#张琦 #数字人 #商业思维 #创业 #成长</t>
+          <t>殿堂级音乐人、中日友好使者谷村新司一路走好。#谷村新司#中日友好#音乐#星#萧大业</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7394286462008659210</t>
+          <t>https://www.douyin.com/video/7290151045265755453</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/89faa288b33a45eab04c67a079f41010~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Zn0%2Bq8NXr9y0m3cjZvuldw3Pul4%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/oAGBdANhkgKcl9ANlIBi9mASIoEif6AczGYe0r~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=AS7%2FviNdSB5hTDJmGNXOqwRKqOI%3D</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>635</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>自媒体创业者，如何成为表达的高手？#自媒体 #表达 #创始人 #提升口才 #创业</t>
-        </is>
-      </c>
+          <t>5090</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7394100010469657893</t>
+          <t>https://www.douyin.com/video/7289376760318233914</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/6356775fdcd44d35a7a88209716534af~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=ZpGUPrBVQetxNjx9N0SZSzilpWQ%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o8PAMIfldEzsnMBAiB9gtzhQypIMedbANbZIEB~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=lwvTn1fuprzhR%2BaalXBy%2BxKOVOg%3D</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1.9万</t>
+          <t>6218</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>萝卜快跑无人驾驶，带给我们的一些思考#萝卜快跑 #商业思维 #创业 #无人驾驶 #商业</t>
+          <t>84岁双手颤抖演奏《我的祖国》，全身颤抖，唯有手在琴键上那么稳健有力… #钢琴#刘诗昆#热爱#我的祖国#萧大业</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7393681306527255843</t>
+          <t>https://www.douyin.com/video/7289029165137841445</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/75ebdf2bdeb94265826fd9df28148366~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=HaCwvUHGIy1PrcriqLteSa9yi9g%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oEBATtnje2EaJqPgi9eWABZA9CqIQNCbgl935D~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=9Y7UTYgLkaWG3w162hEYw0ZQ2sA%3D</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2.1万</t>
+          <t>978</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>《错位》这个剧给我3个思考#错位 #恋爱脑 #思考 #人性 #认知</t>
+          <t>要让教育适配孩子，而不是让孩子适应教育 #马斯克#特斯拉#教育#孩子#萧大业</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7393296576690588962</t>
+          <t>https://www.douyin.com/video/7288648400575221029</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/7a942e2e33ac4943b467000ad4d2f739~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Lg2qLKXW2GqVIfRMAfDZjgMquoQ%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/ogZDLeRyILoANKJByMCnbAe9r1A8Ccngk3slQE~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=GATD6zPvqPbQruuy8EPEeBGYlGE%3D</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>2541</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>懂情绪价值会说话的人，真的太厉害了#情绪价值 #会说话 #高情商</t>
+          <t>听完醍醐灌顶。@微信创作者  #毛姆#哈耶克#爱因斯坦#罗素#萧大业</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7393154200500325670</t>
+          <t>https://www.douyin.com/video/7288272407498870073</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/dc32c44016bc4df4a7a6369121e94c34~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=bkhGRZu7Pg%2FXg4ycRYUghZflZUo%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ocElIBAX9JaJA1zlpfwCNwHD3TAAfhXgNzSSBR~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=twcfZB3dnF2L4UdP4tGW9zPlfLk%3D</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1495</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>父母帮忙带孩子，是情分不是义务#父母 #家庭 #认知 #人生 #孩子</t>
-        </is>
-      </c>
+          <t>5896</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7392941528613801251</t>
+          <t>https://www.douyin.com/video/7287914528438832443</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/1513c3c8a2c948c295295f2a8c1836b6~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=fIkyce3e%2FUNYMw5dXTuvFyFsHiE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oEoeENPM8zA63PX2I9fOA9lB0AsgEBmIIStRjh~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=SZg6dkqis1gXFYxrp%2BMm%2BxTA3P8%3D</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>6.5万</t>
+          <t>1.5万</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>人生想开了，就无所谓烦恼#人生 #父母 #养老 #认知 #家庭</t>
+          <t>一场耻辱的比赛，一群举世闻名的软蛋，结局在12年前就已注定。#中国男篮#篮球#亚运会#体育#萧大业</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7392902636925635892</t>
+          <t>https://www.douyin.com/video/7287530293240548663</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/54fda1c270844b96b3d365ea4484c646~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Vo%2FQ3aQ5l%2FHbLML3B%2FdaU9WQe%2BU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/os7ih8gIbAIpjIIDDn9l8jBegDAN8AfsJoJQjr~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=njFCchyWdO%2BU2YK3mBnpryNPxIw%3D</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>6054</t>
+          <t>860</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>一个视频告诉你，95后00后的钱怎么赚#00后 #商业思维 #情绪价值 #反消费 #创业</t>
+          <t>一身是病又压力重重，他是如何活到100岁的？ #基辛格#100岁#长寿#身体健康#萧大业</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7392836559210417423</t>
+          <t>https://www.douyin.com/video/7287181648284732733</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/e200ae0b33f745ed9ce3a8c739b9803a~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=2GnUFugMH2R9UCZlZCThHoDR3kU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oINBIeJAJUInwOLxCju9kwbSAUAeCiDlgIyQBH~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=1FWGqzhEkAf100lbfGtLzgG5Jdg%3D</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>701</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3招脱稿演讲，全场为你鼓掌#演讲 #脱稿 #表达 #提升口才 #发言</t>
+          <t>为什么应该成为一个理想主义者？#马斯克#特斯拉#理想主义#现实主义#萧大业</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7392782952117046568</t>
+          <t>https://www.douyin.com/video/7286429321328102717</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/c31a8bc39d714bf8ac4415a569f30d04~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Uf8D5AqSk%2F1VE%2FRxcEqE%2FrX5mv0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o8blL79oA8nHmegDbmeiPI7OAgWCQgBMpCCNxA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=eROL8dvGebY6kKQPgrgaA1faHLc%3D</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>普通人最好的投资是投资自己 #个人成长 #投资 #学习 #知识 #创业</t>
-        </is>
-      </c>
+          <t>5391</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7392582155320233216</t>
+          <t>https://www.douyin.com/video/7286044885067582781</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/7515ba46df5441e2b918a77f09f0ee29~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=5gcNFxR%2BKMiSBcBvXw0SsvkBLS0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/afb21ab009b944e4921721a10084d428_1696414612~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=fgfGsU3zNAOq4AMZhdrzXxtEzaA%3D</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2742</t>
+          <t>10.5万</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>你觉得什么叫智慧？什么叫成长？#智慧 #成长 #人生 #情感共鸣 #认知</t>
+          <t>人的一生中，到底什么最重要？读完了这篇文章我豁然开朗泪眼朦胧…#人生 #重要#成长 #萧大业#感动</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7392214373160242469</t>
+          <t>https://www.douyin.com/video/7285690659560901925</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/e55333c79a3b492eb7e5f1c8765da0b0~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=wEvrwVsBr%2BWkqqPJrLA3Bh03uHs%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ogejR9dKNAcpBU5BDBdfg7eCaQ3bQ0tAB4mAIn~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=vQUX2Qxz2pubgS7BVDhRjKbgYE8%3D</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1329</t>
+          <t>528</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>等待不如去实践，犹豫不如去学习#女性成长 #业绩 #创业 #商业 #新媒体</t>
+          <t>国庆长假，唱一首红歌，祝各位节日快乐🍾️，来看看我唱红歌唱的怎样？@微信创作者  #国庆#祖国#红歌#我和我的祖国#萧大业</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7392168033961184527</t>
+          <t>https://www.douyin.com/video/7285299981794217275</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/9ae0f07de2dd4d738abbfc262ea4443d~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Bl5lwH6P%2FFbIgw9RyDogORSlyuU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oAAABc0ad0yItB1cMIzUMEMmNjlehrfgjOlAkX~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=kdZGD4rLTVt9IIZXlXvNZS7umeI%3D</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2.6万</t>
+          <t>1662</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>不谈恋爱不结婚，00后钱花哪里去了？#消费 #商业思维 #年轻人 #创业 #生意</t>
+          <t>雷军在中国企业家里算是非常优秀的，比那些特能吹牛逼的强多了 #雷军#马斯克#特斯拉#电动汽车#萧大业</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7392081893736336675</t>
+          <t>https://www.douyin.com/video/7284977709720046908</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/4a134674055a42a1a289e2de4580f8e8~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=vQljoaMoTnfqFG7uEizy6u9xocg%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQeSeQCEIHfexuPCb4UDyPUEZQRF0L92AAi4Y2~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=JjY4WBQ86tY%2BdzBLA8YW%2FKKKbHE%3D</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1071</t>
+          <t>5208</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>请停止内耗，成为更好的自己#内耗 #个人提升 #表达 #口才 #高情商说话技巧</t>
+          <t>亚洲荣光，中国骄傲，一个自强不息铁汉柔情的中国人…#张志磊#拳击#拳王#励志#萧大业</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7391854129829760282</t>
+          <t>https://www.douyin.com/video/7284574886507367738</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/153138aeeac04ea29a51161ea228935e~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=t8Ix0qjqeujmYUfSLRYKACMYT4Q%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/okkAGNAYVgwez7WIBpFhA4BNAAjfEtPlyADD4A~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=n67u3RAjFSmhSZ04iNYhDvmzs4I%3D</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1376</t>
+          <t>810</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>为什么麦当劳附近总有肯德基？#对标 #商业思维 #创业 #生意 #业绩</t>
+          <t>我们不关心专利，专利是为弱者准备的，刚重要的是你的创新速度。 #马斯克#特斯拉#专利#创新#萧大业</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7391795191201500466</t>
+          <t>https://www.douyin.com/video/7283817175486352695</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/6b74d0995d0d4b7b9c217db8965d8c30~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=EMa6bkZ8Q9T1pNxp5uVLq4e13n8%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o0kADSn6eR8lFUVN79VxABeAVc1EINBbglVoAD~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=OYnshS5O48IjmDpGOSDP8S6Np84%3D</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>3940</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>当养老院遇上幼儿园，竟擦出新的商业火花#养老院 #商业思维 #创业 #商业模式 #生意</t>
-        </is>
-      </c>
+          <t>2744</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7391712856405773603</t>
+          <t>https://www.douyin.com/video/7283472322634337595</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/8a0c56c704794989ab566bcf307ed5cf~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=qItPOlIOLJPDNHU1h8xVNUuc2FE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ooUiNEOIzwMugBFgght4AmBl4fCNRyAA9OvebU~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=uBo%2FHV%2BiBITJKKNQVdewPDQMCcE%3D</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>3483</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>真正厉害的员工，懂得向上管理#向上管理 #会说话 #接话 #职场 #表达</t>
+          <t>话很残酷，但听完会清醒@微信创作者 #成长 #人生 #萧大业#扎心#刻薄</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7391514687902371110</t>
+          <t>https://www.douyin.com/video/7283104428633148730</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/bc46cbffb8294d289552bcdb7a2f3a3e~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=gOWCBbvU7HJ0S2rKrjFjg%2BCIGCQ%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o4BHAy7EzeoP5AsBElDnUObDIhyVgjteANSQy9~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=OxOieLiThLukgp1xvHmwdjxaWCw%3D</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>2311</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>企业家老板做个人IP，按照我的方法真的不难#企业家 #个人ip #传播 #商业思维 #营销</t>
+          <t>看完这一集你在赚米的道路上会前进一大步。 #生意#商业#成交#买卖#萧大业</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7391486909702212879</t>
+          <t>https://www.douyin.com/video/7282736967773736229</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/d2c1b7f58ab146c991c17317b68de828~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=o6K6t9zOU058a6nLkKEAPI7F2rA%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oUgoAjiD9NkbPpYgegCXjQxEIAUlhYnClXrAeB~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=quFgAHN0v1cyFQpc7YZWfKEeDJ0%3D</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>3.5万</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>平替版蜜雪冰城，如何抓住下沉市场#蜜雪冰城 #商业思维 #创业 #下沉市场 #生意</t>
-        </is>
-      </c>
+          <t>7900</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7391128239260880138</t>
+          <t>https://www.douyin.com/video/7281964219589741885</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/e9ddef5121924614a4637c0f2aed58f4~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=GfwSbQ6%2Fy107XoSY36Z06b%2BsXFw%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ogblDN9gA6nDRdvDld8vUIPeAkWaQgBRrhCNfA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=eRNOzMN5Wx5DgKJAs9gQxPUy5GM%3D</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>4782</t>
+          <t>1453</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>在路上向远方，走出去天地宽#极兔 #商业思维 #出海 #创业 #商业</t>
+          <t>识别渣男是女人的头等大事。 #渣男#婚姻#男人#识人#萧大业</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7390774675904744756</t>
+          <t>https://www.douyin.com/video/7281603438654377277</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/7c056984aee941aa93d6e5864f2de268~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=FFSk5Jm5EmqVujjoQth6wEFaIHY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o01I52POAn5DmNfah68ogOQD9APRCfKbAWBlGX~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=9%2BKTicsgUB5IkLX9GH4wN%2BQJE%2BU%3D</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>814</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>睡前读一遍，情商突飞猛进#高情商 #口才 #会说话 #表达 #说话技巧</t>
+          <t>还记得小时候学校墙上写的那句话吗？“一切为了孩子” #预制菜#孩子#教育#学校#萧大业</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7390696582993268002</t>
+          <t>https://www.douyin.com/video/7281245243427671356</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/f75bb0fb793d4aa497ff1cc427cf9227~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=YlkdVEMlm%2FFzQxCwbHqZAnFyYAU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/oQfnIMe9AJaftwUYBAnAQvGZ7IKAWEABAFD3br~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=9kBMQFtMWGaQH%2FQ4XvD9s%2BaTeEU%3D</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>3975</t>
+          <t>3676</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>拒绝内斗不走寻常路，传音手机闷声发大财#出海 #手机 #商业思维 #创业 #发财</t>
+          <t>从地球到火星，从人类到AI，九家公司都是改变世界，改变人类进程的公司，他正在改变世界 #马斯克#特斯拉#SpaceX#脑机接口#萧大业</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7390631825271426330</t>
+          <t>https://www.douyin.com/video/7280866668262313272</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/4050cb74f5d14014bb2966d1d76d0a4e~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=x6PFGsnajlk5IMqJ0iltpJ%2BWpoE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQyTNLKPEBrEWAfeGALIibNBIhAqggNEXr1zhL~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=u7BcoJxQzpPEtH7D5xs3D5U6kjc%3D</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>297</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>想要获得新增长，把365当成随身听#商业 #天地人网 #拓客引流 #创业 #实体门店</t>
-        </is>
-      </c>
+          <t>3163</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7390400508961279266</t>
+          <t>https://www.douyin.com/video/7280487425321815354</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/7437b386e27544e0b77cc0b6eeeb7c4d~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=UoFb3R0lZYTK4bZMfStPhV1W%2FGQ%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oE94LAP6AR1QLCMl8XNeDyWCIBIbYnUSxgnfAu~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=yj86Wr9qOyzCvjj%2BLpa8R76BDb4%3D</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1.1万</t>
+          <t>1.0万</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>一年卖出150亿杯茶，霸王茶姬野心有多大#霸王茶姬 #张俊杰 #商业思维 #创始人 #野心家</t>
+          <t>任何一个人，不管是离婚，结婚还是单身，目的都是为了幸福 #傅首尔#离婚#奇葩说#婚姻#萧大业</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7390227585512377652</t>
+          <t>https://www.douyin.com/video/7280131701219544381</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/265f04fdd8d745ec9fadacbb055ac4b4~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=a3YPIgpjygg%2BnYIxcKlciOjZkCE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ocpIB1jDAL9xBInEABelAOongsNFRAITbDCAfI~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=K8etHw2y42zqZWazjiTlvbvEdNA%3D</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>908</t>
+          <t>2.0万</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>如何克服你发言紧张#紧张 #发言 #演讲 #高情商说话技巧 #表达</t>
+          <t>只有疯狂到认为自己可以改变世界的人才能改变世界。#马斯克#特斯拉#乔布斯#电动汽车#萧大业</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7389926787213430056</t>
+          <t>https://www.douyin.com/video/7279402809131355453</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/815b4f7490d4456ea15ca1773db87e27~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=a64PX%2BgMO%2FKs%2BOAnBjGemwZbNnM%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o0EWFKfB2C0S9A7fleIAg5HBPoPPQCBCo2HUla~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=iFIc26TB333zwoKcoVXrr%2FD0j%2Fg%3D</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>4.2万</t>
+          <t>1122</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>女性经济的崛起，已经势不可挡#女性经济 #商业思维 #女性成长 #大女主 #认知</t>
+          <t>有些钱不该花，有些钱真的不能省#省钱#绩效#薪酬#激励#萧大业</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7389854774360837414</t>
+          <t>https://www.douyin.com/video/7278597206377106747</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/21a1da7df40440a191d9e111bd37c2af~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=plyuz3IZ5OCL6IuMaltY%2FhOtMmM%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o0vbseVyA0H9WnY3Q4iApU27oaDAAlfNgCBFIy~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=r%2BJRG3uSUfaSeDKsH4limwL4KCQ%3D</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>340</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>4亿学员腾讯课堂关闭知识付费不行了？#知识付费 #商业思维 #创业 #学习 #短视频</t>
-        </is>
-      </c>
+          <t>1711</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7389548248953916706</t>
+          <t>https://www.douyin.com/video/7278274671613726012</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/95df32b501e74775b41119ae48fd2cc0~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=cCc66aoSmEk1tUOsMw0Mr4%2FJHog%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/oMBw38C7anKkAcBfoAsXA4EeIbqr2VBDX5QezC~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=TPp7SwwHN9DKYGF8q5Xt3lMKTGo%3D</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2441</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>高考不是终点而是新的起点#高考 #认知 #思维 #人生 #大学</t>
-        </is>
-      </c>
+          <t>3047</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7389473080843734324</t>
+          <t>https://www.douyin.com/video/7277890142633807160</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/fc2c7ea64063436fb256b0c996436281~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=6rAI5DBJlPkZ7YDVFOJm%2BmnRJns%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/okNoiAEhCxEygTpyAVBIeQmfht0OUFANAzPBgU~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=f%2FJ%2FBiiX3Np%2BNEGOOg2nXUJX%2Fts%3D</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2098</t>
+          <t>3418</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024一定要关注小而美的生意#商业思维 #生意 #创业 #实体门店 #营销思维</t>
+          <t>其实这件事特别值得分析，里面的信息实在太多了。 #李佳琦#直播带货#电商#口红#萧大业</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7389284780967251251</t>
+          <t>https://www.douyin.com/video/7277529678536133947</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/1394248ae2bc4e4b9e72586db8cbf4b6~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=VzFn5zESYIwKPIVahzg8I77eQlE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oA7nTB1QASaQVCrJavaeDoUfICrbQlP9IAneBK~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=1D3QRXS4U68MpG%2F3396BnTfCBwY%3D</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>8363</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>00后悦己至上值得我们学习#悦己消费 #00后 #虚拟世界 #商业思维 #认知</t>
+          <t>又要恰饭，又瞧不起人 #李佳琦#直播带货#淘宝#美妆#萧大业</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7389245727668522280</t>
+          <t>https://www.douyin.com/video/7277167859162287418</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/e140083ae15b495fa49b41ad1049512e~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=rAZHOdZdta%2B5Bsyapujr9XkHdcE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ogBCAsXfEfLA7AtDEkhzGatoI9YngiLNAN9zL9~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=nqz4jS5DDnfqJ54PKqPvp7pgYpM%3D</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024新媒体时代，如何做好内容营销#新媒体 #内容营销 #商业思维 #婚恋 #市场</t>
+          <t>今天是教师节，仅以此视频致敬天下所有的教育工作者。 #教育#陶行知#老师#教师节#萧大业</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7389213080774806824</t>
+          <t>https://www.douyin.com/video/7276793444192898360</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/239b303ea1184db3ba88204622fce568~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Yyce0HRecPeQtwmLYYf0Rt%2B%2FJ9Q%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oE2TVu2nDfPef4vH4u5owQ6jCMe8gAEpL0B0HA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=QMkFZztZA4tQGzGb7wiBcCe8PfM%3D</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>8615</t>
+          <t>539</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>中华民族才是世界上最伟大的民族#民族自信 #团结 #骄傲 #一带一路 #和平</t>
+          <t>各位大佬，周末愉快，献上一首往后余生 #萧大业 #唱歌 #往后余生#马良#人生</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7388912563964235017</t>
+          <t>https://www.douyin.com/video/7276407472145976636</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/9ff36d6b101d498da9932e43f7ccd4c0~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=0RCPpJzVCa8G4qSY%2F%2FnnSYnaVkg%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oovBCeEfj8X8ACaJBJVy7KA61DQPbB5ng1fhOm~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=tAMPRPTlRhL44yQOmHDw1VzIqeA%3D</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1489</t>
+          <t>2343</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>学说话就是在赚钱 #说话技巧 #表达  #赚钱 #高情商说话技巧 #提升口才</t>
+          <t>故事还在继续，传奇永不止步。#梅西#阿根廷#足球#萧大业#世界杯</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7388587625189297448</t>
+          <t>https://www.douyin.com/video/7275653652935675192</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/e9e1aa871e7b40afa53ea79b37c06327~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=EVoMArHn36jP%2F26tvsvaDEfpR2Y%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oAHBKbF43A07nI2IBNKDAlCaUBeeEqJ0JaAfYT~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=nkLbDzfawtDWYB9TnTmvRFH2Pgk%3D</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1156</t>
+          <t>802</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024新媒体时代会迎来哪些风口？#商业 #新媒体时代 #创业 #赛道 #业绩</t>
+          <t>个人观点，非喜勿喷[呲牙] #茅台#瑞幸#酱香拿铁#营销#萧大业</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7388518265150033178</t>
+          <t>https://www.douyin.com/video/7275292111191215416</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/67998b53aba24f53b8a0205c3fb3526d~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=Hkqf%2BD%2FbIIGwrQQD%2F59aszukh6Y%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oEHIaQDBAA7FBgDw7ebdgJnC4s7fYDBR0VqeCu~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=w86gC32zocs7pTYEivq7ZPKpj6s%3D</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1581</t>
+          <t>1433</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>希望董宇辉老师能看到这个视频#商业思维 #创业 #董宇辉 #认知 #经商</t>
+          <t>长寿非我刻意求之，但我欣然接受。 #长寿#百岁#存在感#人生 #萧大业</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7387801959941606682</t>
+          <t>https://www.douyin.com/video/7274926739250351416</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-dy/eb0b332e3ab14ae0846a88543ca87fe5~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=DqbeuCAUJfFDPz2ibWh12SaPxhE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/osf19bbJkENWAmAuuB981jqDIJnBfiAEvgb01y~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=PqQUn1p1WuMy%2BX%2F%2BbsMGKWkZ330%3D</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>9185</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>张琦老师那么牛，身价到底几个亿?#张琦 #天地人网 #短视频 #直播 #新媒体</t>
+          <t>这是一段直击心灵应该听听的演讲…#李安 #梁朝伟#刘嘉玲#电影#萧大业</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7387749983388306725</t>
+          <t>https://www.douyin.com/video/7274578312725351738</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/a2fbb2341696428582e5af7e4027c166~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=zJZBmRSgErflVD9CwD6hXni%2FeCo%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o4Qnk9CPmzJHABaJVI3AjoCADnNnoYVIJgbe9f~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=LsYsV26M1gNY2P7HKKYCoLh5jnM%3D</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>7770</t>
+          <t>3.7万</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>未来干掉微信的居然是这个#未来 #科技 #智能 #商业 #认知</t>
+          <t>他低调，内敛，用一生的演绎证明了自己的热爱。@微信创作者  #梁朝伟#刘嘉玲#电影#威尼斯电影节#萧大业</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7387594242069187855</t>
+          <t>https://www.douyin.com/video/7274176769316506938</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/5b935733fbbe4a3b8ecd8da86315d69b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=1aOuHHSVBycqYD0ZI6oMXC%2FUKfM%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oUICM9Bk18zEE8MpHefnUgAANTAbAt0qjQlvDx~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=JoQPvsXbRNFpNHoUt4PsCyqPRic%3D</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>616</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>女生必学的10句高情商话术#高情商说话技巧 #口才 #表达 #夸赞 #说话公式</t>
+          <t>周末愉快，萧大业献歌给你，祝你随风飘舞… #萧大业 #成长 #你的答案#人生 #音乐</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7387366416380333312</t>
+          <t>https://www.douyin.com/video/7273795404133584184</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-dy/ea77e469283041c4a4e4c38be0bbc329~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051445600&amp;x-signature=3kl1CUvMf1Tz3V9pVzmEGRREmkA%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/okw9C8DfppULVxNmAWZOtVgInbAieACDSB0kbQ~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=qfnBPHa8H6SECPTrYK5OxAnF8cg%3D</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>2438</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>未来科技的发展，你无法想象#科技 #时间简史 #认知思维 #强者思维 #趋势</t>
+          <t>克制自己去纠正别人的欲 望。成年人只能筛选，不能教育。 #逆袭#人性#人生#成长#萧大业</t>
         </is>
       </c>
     </row>
